--- a/AutomatedTest/TestData/Temenos/ManualReject.xlsx
+++ b/AutomatedTest/TestData/Temenos/ManualReject.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC33A537-8A52-42AC-9926-53070A82CBA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1180DF96-AAE5-4BBC-A94E-DEB52094D1D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="InputTestData" sheetId="2" r:id="rId2"/>
     <sheet name="ValidationTestData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,9 +104,6 @@
     <t>AccountNumber</t>
   </si>
   <si>
-    <t>Applicationtype</t>
-  </si>
-  <si>
     <t>ApproveApplyingFor</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>Term</t>
+  </si>
+  <si>
+    <t>ApplicationType</t>
   </si>
 </sst>
 </file>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>24</v>
@@ -916,16 +916,16 @@
         <v>25</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>16</v>
@@ -965,19 +965,19 @@
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>8</v>

--- a/AutomatedTest/TestData/Temenos/ManualReject.xlsx
+++ b/AutomatedTest/TestData/Temenos/ManualReject.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1180DF96-AAE5-4BBC-A94E-DEB52094D1D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6AD952-37AC-4884-B348-3955373192F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>TestScriptName</t>
   </si>
@@ -71,33 +71,6 @@
     <t>36</t>
   </si>
   <si>
-    <t>AddStipulations</t>
-  </si>
-  <si>
-    <t>stipulation</t>
-  </si>
-  <si>
-    <t>requiredFor</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>2 years tax returns</t>
-  </si>
-  <si>
-    <t>Approval</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Akcelerant</t>
-  </si>
-  <si>
     <t>ApplicationSource</t>
   </si>
   <si>
@@ -138,6 +111,12 @@
   </si>
   <si>
     <t>ApplicationType</t>
+  </si>
+  <si>
+    <t>RemoveDecision</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -168,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -320,73 +293,20 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -419,6 +339,16 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -877,10 +807,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,58 +819,49 @@
     <col min="2" max="6" width="31.140625" style="10"/>
     <col min="7" max="7" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="31.140625" style="10"/>
-    <col min="16" max="16384" width="31.140625" style="8"/>
+    <col min="9" max="11" width="31.140625" style="10"/>
+    <col min="12" max="16384" width="31.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="L1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="14" t="s">
         <v>10</v>
@@ -950,34 +871,29 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>8</v>
@@ -998,40 +914,19 @@
         <v>14</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="8" priority="4111"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:XFD1">
-    <cfRule type="duplicateValues" dxfId="7" priority="4112"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4113"/>
+  <conditionalFormatting sqref="L1:XFD1">
+    <cfRule type="duplicateValues" dxfId="2" priority="4145"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4146"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:XFD1">
-    <cfRule type="duplicateValues" dxfId="3" priority="4122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="2" priority="4133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="1" priority="4141"/>
+  <conditionalFormatting sqref="L1:XFD1">
+    <cfRule type="duplicateValues" dxfId="0" priority="4155"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1053,7 +948,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I2:O2 A2:G2 A3:O1048576 A1:O1 P1:XFD1048576</xm:sqref>
+          <xm:sqref>I2:K2 A2:G2 A3:K1048576 A1:K1 L1:XFD1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
